--- a/AO-NPE Annotated datasets/ONE_DP_number_mismatch.xlsx
+++ b/AO-NPE Annotated datasets/ONE_DP_number_mismatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayou\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaojimeishaonv/Documents/GitHub/Anaphoric-One-and-NPE/AO-NPE Annotated datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{D51190EE-3D60-48DF-8302-B4E0AF009DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{30102B9F-27B7-6947-A19B-1DDF772F525D}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" activeTab="1" xr2:uid="{30102B9F-27B7-6947-A19B-1DDF772F525D}"/>
   </bookViews>
   <sheets>
     <sheet name="One_DP_mismatch" sheetId="1" r:id="rId1"/>
@@ -4715,7 +4715,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4727,7 +4727,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4908,8 +4908,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4924,12 +4924,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5251,9 +5247,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -5317,7 +5313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="72">
+    <row r="2" spans="1:19" ht="76">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5376,7 +5372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="126">
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="133">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5435,7 +5431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="9" customFormat="1" ht="126">
+    <row r="4" spans="1:19" s="9" customFormat="1" ht="133">
       <c r="A4" s="7">
         <v>4</v>
       </c>
@@ -5494,7 +5490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="198">
+    <row r="5" spans="1:19" ht="209">
       <c r="A5" s="2">
         <v>9</v>
       </c>
@@ -5553,7 +5549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="144">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="152">
       <c r="A6" s="10">
         <v>13</v>
       </c>
@@ -5612,7 +5608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="144">
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="152">
       <c r="A7" s="7">
         <v>14</v>
       </c>
@@ -5671,7 +5667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="216">
+    <row r="8" spans="1:19" ht="228">
       <c r="A8" s="2">
         <v>19</v>
       </c>
@@ -5730,7 +5726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="294">
+    <row r="9" spans="1:19" ht="308">
       <c r="A9" s="2">
         <v>20</v>
       </c>
@@ -5789,7 +5785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="13" customFormat="1" ht="162">
+    <row r="10" spans="1:19" s="13" customFormat="1" ht="171">
       <c r="A10" s="12">
         <v>24</v>
       </c>
@@ -5848,7 +5844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="126">
+    <row r="11" spans="1:19" ht="133">
       <c r="A11" s="2">
         <v>25</v>
       </c>
@@ -5907,7 +5903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" ht="144">
+    <row r="12" spans="1:19" s="11" customFormat="1" ht="152">
       <c r="A12" s="10">
         <v>29</v>
       </c>
@@ -5966,7 +5962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="327">
+    <row r="13" spans="1:19" ht="344">
       <c r="A13" s="2">
         <v>34</v>
       </c>
@@ -6025,7 +6021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" ht="216">
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="228">
       <c r="A14" s="10">
         <v>37</v>
       </c>
@@ -6084,7 +6080,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="9" customFormat="1" ht="198">
+    <row r="15" spans="1:19" s="9" customFormat="1" ht="209">
       <c r="A15" s="7">
         <v>40</v>
       </c>
@@ -6143,7 +6139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="9" customFormat="1" ht="198">
+    <row r="16" spans="1:19" s="9" customFormat="1" ht="190">
       <c r="A16" s="7">
         <v>44</v>
       </c>
@@ -6202,7 +6198,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="216">
+    <row r="17" spans="1:19" ht="228">
       <c r="A17" s="2">
         <v>45</v>
       </c>
@@ -6261,7 +6257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="288">
+    <row r="18" spans="1:19" ht="304">
       <c r="A18" s="2">
         <v>46</v>
       </c>
@@ -6320,7 +6316,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="162.75">
+    <row r="19" spans="1:19" ht="152">
       <c r="A19" s="2">
         <v>47</v>
       </c>
@@ -6379,7 +6375,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="234">
+    <row r="20" spans="1:19" ht="228">
       <c r="A20" s="2">
         <v>55</v>
       </c>
@@ -6438,7 +6434,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="13" customFormat="1" ht="144">
+    <row r="21" spans="1:19" s="13" customFormat="1" ht="152">
       <c r="A21" s="12">
         <v>63</v>
       </c>
@@ -6497,7 +6493,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" ht="216.75">
+    <row r="22" spans="1:19" s="11" customFormat="1" ht="209">
       <c r="A22" s="10">
         <v>66</v>
       </c>
@@ -6556,7 +6552,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="108">
+    <row r="23" spans="1:19" ht="114">
       <c r="A23" s="2">
         <v>68</v>
       </c>
@@ -6615,7 +6611,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="144">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A24" s="10">
         <v>71</v>
       </c>
@@ -6674,7 +6670,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="241.5">
+    <row r="25" spans="1:19" ht="228">
       <c r="A25" s="2">
         <v>78</v>
       </c>
@@ -6733,7 +6729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="13" customFormat="1" ht="180">
+    <row r="26" spans="1:19" s="13" customFormat="1" ht="171">
       <c r="A26" s="12">
         <v>81</v>
       </c>
@@ -6792,7 +6788,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="238.5">
+    <row r="27" spans="1:19" s="11" customFormat="1" ht="249">
       <c r="A27" s="10">
         <v>82</v>
       </c>
@@ -6851,7 +6847,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="201">
+    <row r="28" spans="1:19" ht="190">
       <c r="A28" s="2">
         <v>87</v>
       </c>
@@ -6910,7 +6906,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="234">
+    <row r="29" spans="1:19" ht="228">
       <c r="A29" s="2">
         <v>96</v>
       </c>
@@ -6969,7 +6965,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="180">
+    <row r="30" spans="1:19" ht="190">
       <c r="A30" s="2">
         <v>101</v>
       </c>
@@ -7028,7 +7024,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="198.75">
+    <row r="31" spans="1:19" ht="190">
       <c r="A31" s="2">
         <v>105</v>
       </c>
@@ -7087,7 +7083,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="9" customFormat="1" ht="144">
+    <row r="32" spans="1:19" s="9" customFormat="1" ht="133">
       <c r="A32" s="7">
         <v>115</v>
       </c>
@@ -7146,7 +7142,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="9" customFormat="1" ht="270">
+    <row r="33" spans="1:19" s="9" customFormat="1" ht="285">
       <c r="A33" s="7">
         <v>127</v>
       </c>
@@ -7205,7 +7201,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="11" customFormat="1" ht="198">
+    <row r="34" spans="1:19" s="11" customFormat="1" ht="209">
       <c r="A34" s="10">
         <v>133</v>
       </c>
@@ -7264,7 +7260,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="276">
+    <row r="35" spans="1:19" ht="268">
       <c r="A35" s="2">
         <v>142</v>
       </c>
@@ -7323,7 +7319,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="380.25">
+    <row r="36" spans="1:19" ht="398">
       <c r="A36" s="2">
         <v>145</v>
       </c>
@@ -7382,7 +7378,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="181.5">
+    <row r="37" spans="1:19" ht="190">
       <c r="A37" s="2">
         <v>149</v>
       </c>
@@ -7441,7 +7437,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="9" customFormat="1" ht="162">
+    <row r="38" spans="1:19" s="9" customFormat="1" ht="171">
       <c r="A38" s="7">
         <v>154</v>
       </c>
@@ -7500,7 +7496,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="180">
+    <row r="39" spans="1:19" ht="190">
       <c r="A39" s="2">
         <v>160</v>
       </c>
@@ -7559,7 +7555,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="237">
+    <row r="40" spans="1:19" ht="249">
       <c r="A40" s="2">
         <v>169</v>
       </c>
@@ -7618,7 +7614,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="201.75">
+    <row r="41" spans="1:19" ht="211">
       <c r="A41" s="2">
         <v>172</v>
       </c>
@@ -7677,7 +7673,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="234">
+    <row r="42" spans="1:19" ht="247">
       <c r="A42" s="2">
         <v>188</v>
       </c>
@@ -7736,7 +7732,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="270">
+    <row r="43" spans="1:19" ht="285">
       <c r="A43" s="2">
         <v>203</v>
       </c>
@@ -7795,7 +7791,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="183">
+    <row r="44" spans="1:19" ht="192">
       <c r="A44" s="2">
         <v>211</v>
       </c>
@@ -7854,7 +7850,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="270.75">
+    <row r="45" spans="1:19" ht="266">
       <c r="A45" s="2">
         <v>218</v>
       </c>
@@ -7913,7 +7909,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="255">
+    <row r="46" spans="1:19" ht="268">
       <c r="A46" s="2">
         <v>220</v>
       </c>
@@ -7972,7 +7968,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="222">
+    <row r="47" spans="1:19" ht="230">
       <c r="A47" s="2">
         <v>238</v>
       </c>
@@ -8031,7 +8027,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="13" customFormat="1" ht="216">
+    <row r="48" spans="1:19" s="13" customFormat="1" ht="209">
       <c r="A48" s="12">
         <v>242</v>
       </c>
@@ -8090,7 +8086,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="312">
+    <row r="49" spans="1:19" ht="327">
       <c r="A49" s="2">
         <v>251</v>
       </c>
@@ -8149,7 +8145,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="257.25">
+    <row r="50" spans="1:19" ht="268">
       <c r="A50" s="2">
         <v>290</v>
       </c>
@@ -8208,7 +8204,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="144">
+    <row r="51" spans="1:19" ht="152">
       <c r="A51" s="2">
         <v>302</v>
       </c>
@@ -8267,7 +8263,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="90">
+    <row r="52" spans="1:19" ht="95">
       <c r="A52" s="2">
         <v>305</v>
       </c>
@@ -8326,7 +8322,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="198">
+    <row r="53" spans="1:19" ht="209">
       <c r="A53" s="2">
         <v>314</v>
       </c>
@@ -8385,7 +8381,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="90">
+    <row r="54" spans="1:19" ht="95">
       <c r="A54" s="2">
         <v>342</v>
       </c>
@@ -8444,7 +8440,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="55" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A55" s="10">
         <v>343</v>
       </c>
@@ -8503,7 +8499,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="11" customFormat="1" ht="183">
+    <row r="56" spans="1:19" s="11" customFormat="1" ht="173">
       <c r="A56" s="10">
         <v>357</v>
       </c>
@@ -8562,7 +8558,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="11" customFormat="1" ht="409.5">
+    <row r="57" spans="1:19" s="11" customFormat="1" ht="409.6">
       <c r="A57" s="10">
         <v>368</v>
       </c>
@@ -8621,7 +8617,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="58" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A58" s="10">
         <v>369</v>
       </c>
@@ -8680,7 +8676,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="11" customFormat="1" ht="273">
+    <row r="59" spans="1:19" s="11" customFormat="1" ht="268">
       <c r="A59" s="10">
         <v>370</v>
       </c>
@@ -8739,7 +8735,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="11" customFormat="1" ht="252">
+    <row r="60" spans="1:19" s="11" customFormat="1" ht="247">
       <c r="A60" s="10">
         <v>373</v>
       </c>
@@ -8798,7 +8794,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="11" customFormat="1" ht="274.5">
+    <row r="61" spans="1:19" s="11" customFormat="1" ht="287">
       <c r="A61" s="10">
         <v>374</v>
       </c>
@@ -8857,7 +8853,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="11" customFormat="1" ht="342">
+    <row r="62" spans="1:19" s="11" customFormat="1" ht="361">
       <c r="A62" s="10">
         <v>380</v>
       </c>
@@ -8916,7 +8912,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="11" customFormat="1" ht="216">
+    <row r="63" spans="1:19" s="11" customFormat="1" ht="228">
       <c r="A63" s="10">
         <v>385</v>
       </c>
@@ -8975,7 +8971,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="11" customFormat="1" ht="409.5">
+    <row r="64" spans="1:19" s="11" customFormat="1" ht="409.6">
       <c r="A64" s="10">
         <v>387</v>
       </c>
@@ -9034,7 +9030,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:19" s="11" customFormat="1" ht="237">
+    <row r="65" spans="1:19" s="11" customFormat="1" ht="249">
       <c r="A65" s="10">
         <v>393</v>
       </c>
@@ -9181,7 +9177,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
       <c r="A1" t="s">
@@ -9189,12 +9185,12 @@
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" ht="17.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>296</v>
       </c>
